--- a/browser-features.xlsx
+++ b/browser-features.xlsx
@@ -11,11 +11,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Browser</t>
   </si>
   <si>
+    <t>URL display</t>
+  </si>
+  <si>
     <t>Padlock</t>
   </si>
   <si>
@@ -37,6 +40,9 @@
     <t>Firefox 70.0.1</t>
   </si>
   <si>
+    <t>After domain, displayed in lighter font colour</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
     <t>Safari 3.0.3</t>
   </si>
   <si>
+    <t>Protocol not shown unless selected, after domain appears to be displayed in slightly different font weight</t>
+  </si>
+  <si>
     <t>“Safari is using an encrypted connection to…”, and Show Certificate option</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>Chrome 78.0.3904.97</t>
   </si>
   <si>
+    <t>Protocol not shown unless selected, “://“ and after domain displayed in lighter font colour</t>
+  </si>
+  <si>
     <t>“Connection is secure” and Learn more, Certificate (valid/not), Cookies (number in use), Site settings (opens tab)</t>
   </si>
   <si>
@@ -71,6 +83,9 @@
   </si>
   <si>
     <t>Edge 79.0.309.18</t>
+  </si>
+  <si>
+    <t>“://“ and after domain displayed in lighter font colour</t>
   </si>
   <si>
     <t>“Connection is secure”, Certificate (valid/not), Cookies (number in use), Site permissions (opens tab), “Tracking prevention” and “Manage”, On/off, Trackers (menu)</t>
@@ -1350,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
@@ -1358,8 +1373,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="9" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.25" customHeight="1">
@@ -1384,97 +1399,112 @@
       <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" ht="116.25" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="5">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="5">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s" s="5">
-        <v>8</v>
-      </c>
       <c r="G2" t="s" s="5">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H2" t="s" s="5">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="68.05" customHeight="1">
+    <row r="3" ht="80.05" customHeight="1">
       <c r="A3" t="s" s="6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s" s="8">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="92.05" customHeight="1">
       <c r="A4" t="s" s="6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="8">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="E4" t="s" s="8">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s" s="8">
-        <v>15</v>
+      <c r="H4" t="s" s="8">
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="128.05" customHeight="1">
       <c r="A5" t="s" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s" s="8">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="8">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
